--- a/mapping/ChemCatChem_ENVO.xlsx
+++ b/mapping/ChemCatChem_ENVO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -205,10 +205,61 @@
     <t>{'label': 'halide'}</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['ChEBI defines this too specifically (SJC)']</t>
+    <t>['A nanometre sized object.']</t>
+  </si>
+  <si>
+    <t>['A compound formally derived from ammonia by replacing one, two or three hydrogen atoms by hydrocarbyl groups.', 'A compound formally derived from ammonia by replacing one, two or three hydrogen atoms by hydrocarbyl groups.']</t>
+  </si>
+  <si>
+    <t>['A nanometre sized tube composed of either organic or inorganic substances.']</t>
+  </si>
+  <si>
+    <t>['A compound in which a carbonyl group is bonded to two carbon atoms: R2C=O (neither R may be H).', 'A compound in which a carbonyl group is bonded to two carbon atoms: R2C=O (neither R may be H).']</t>
+  </si>
+  <si>
+    <t>['Any monocyclic or polycyclic aromatic hydrocarbon.']</t>
+  </si>
+  <si>
+    <t>['An amide is a derivative of an oxoacid RkE(=O)l(OH)m (l =/= 0) in which an acidic hydroxy group has been replaced by an amino or substituted amino group.', 'An amide is a derivative of an oxoacid RkE(=O)l(OH)m (l =/= 0) in which an acidic hydroxy group has been replaced by an amino or substituted amino group.']</t>
+  </si>
+  <si>
+    <t>['The simplest carboxylic acid, containing a single carbon. Occurs naturally in various sources including the venom of bee and ant stings, and is a useful organic synthetic reagent. Principally used as a preservative and antibacterial agent in livestock feed. Induces severe metabolic acidosis and ocular injury in human subjects.']</t>
+  </si>
+  <si>
+    <t>['Any member of the class of organooxygen compounds that is a polyhydroxy-aldehyde or -ketone or a lactol resulting from their intramolecular condensation (monosaccharides); substances derived from these by reduction of the carbonyl group (alditols), by oxidation of one or more hydroxy groups to afford the corresponding aldehydes, ketones, or carboxylic acids, or by replacement of one or more hydroxy group(s) by a hydrogen atom; and polymeric products arising by intermolecular acetal formation between two or more such molecules (disaccharides, polysaccharides and oligosaccharides). Carbohydrates contain only carbon, hydrogen and oxygen atoms; prior to any oxidation or reduction, most have the empirical formula Cm(H2O)n. Compounds obtained from carbohydrates by substitution, etc., are known as carbohydrate derivatives and may contain other elements. Cyclitols are generally not regarded as carbohydrates.', 'Any member of the class of organooxygen compounds that is a polyhydroxy-aldehyde or -ketone or a lactol resulting from their intramolecular condensation (monosaccharides); substances derived from these by reduction of the carbonyl group (alditols), by oxidation of one or more hydroxy groups to afford the corresponding aldehydes, ketones, or carboxylic acids, or by replacement of one or more hydroxy group(s) by a hydrogen atom; and polymeric products arising by intermolecular acetal formation between two or more such molecules (disaccharides, polysaccharides and oligosaccharides). Carbohydrates contain only carbon, hydrogen and oxygen atoms; prior to any oxidation or reduction, most have the empirical formula Cm(H2O)n. Compounds obtained from carbohydrates by substitution, etc., are known as carbohydrate derivatives and may contain other elements. Cyclitols are generally not regarded as carbohydrates.', 'Any member of the class of organooxygen compounds that is a polyhydroxy-aldehyde or -ketone or a lactol resulting from their intramolecular condensation (monosaccharides); substances derived from these by reduction of the carbonyl group (alditols), by oxidation of one or more hydroxy groups to afford the corresponding aldehydes, ketones, or carboxylic acids, or by replacement of one or more hydroxy group(s) by a hydrogen atom; and polymeric products arising by intermolecular acetal formation between two or more such molecules (disaccharides, polysaccharides and oligosaccharides). Carbohydrates contain only carbon, hydrogen and oxygen atoms; prior to any oxidation or reduction, most have the empirical formula Cm(H2O)n. Compounds obtained from carbohydrates by substitution, etc., are known as carbohydrate derivatives and may contain other elements. Cyclitols are generally not regarded as carbohydrates.']</t>
+  </si>
+  <si>
+    <t>['A molecular entity possessing an unpaired electron.', 'A molecular entity possessing an unpaired electron.']</t>
+  </si>
+  <si>
+    <t>['A molecule consisting of a graphene cylinder or two or more concentric graphene cylinders.']</t>
+  </si>
+  <si>
+    <t>['An acyclic branched or unbranched hydrocarbon having the general formula CnH2n+2, and therefore consisting entirely of hydrogen atoms and saturated carbon atoms.', 'An acyclic branched or unbranched hydrocarbon having the general formula CnH2n+2, and therefore consisting entirely of hydrogen atoms and saturated carbon atoms.']</t>
+  </si>
+  <si>
+    <t>['A carbon oxoacid acid carrying at least one -C(=O)OH group and having the structure RC(=O)OH, where R is any any monovalent functional group. Carboxylic acids are the most common type of organic acid.', 'A carbon oxoacid acid carrying at least one -C(=O)OH group and having the structure RC(=O)OH, where R is any any monovalent functional group. Carboxylic acids are the most common type of organic acid.']</t>
+  </si>
+  <si>
+    <t>['Acyclic and cyclic hydrocarbons having one or more carbon-carbon double bonds, apart from the formal ones in aromatic compounds. The class olefins subsumes alkenes and cycloalkenes and the corresponding polyenes.']</t>
+  </si>
+  <si>
+    <t>['Any cyclic ether in which the oxygen atom forms part of a 3-membered ring.']</t>
+  </si>
+  <si>
+    <t>['Any aliphatic monocarboxylic acid derived from or contained in esterified form in an animal or vegetable fat, oil or wax. Natural fatty acids commonly have a chain of 4 to 28 carbons (usually unbranched and even-numbered), which may be saturated or unsaturated. By extension, the term is sometimes used to embrace all acyclic aliphatic carboxylic acids.', 'Any aliphatic monocarboxylic acid derived from or contained in esterified form in an animal or vegetable fat, oil or wax. Natural fatty acids commonly have a chain of 4 to 28 carbons (usually unbranched and even-numbered), which may be saturated or unsaturated. By extension, the term is sometimes used to embrace all acyclic aliphatic carboxylic acids.']</t>
+  </si>
+  <si>
+    <t>['A nitrohydrocarbon that consists of an arene skeleton substituted by one or more nitro groups at unspecified positions.']</t>
+  </si>
+  <si>
+    <t>['Any isoprenoid that is a natural product or related compound formally derived from isoprene units. Terpenoids may contain oxygen in various functional groups. This class is subdivided according to the number of carbon atoms in the parent terpene. The skeleton of terpenoids may differ from strict additivity of isoprene units by the loss or shift of a fragment, generally a methyl group.']</t>
+  </si>
+  <si>
+    <t>['A thermolysis process in which organic material is decomposed in the absence of oxygen.']</t>
+  </si>
+  <si>
+    <t>['Any heteroatomic molecular entity that is a chemical compound of halogen with other chemical elements.', 'Any heteroatomic molecular entity that is a chemical compound of halogen with other chemical elements.']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +690,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -659,7 +710,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -679,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -699,7 +750,7 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -719,7 +770,7 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -739,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -759,7 +810,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -779,7 +830,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -799,7 +850,7 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -819,7 +870,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -839,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -859,7 +910,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -879,7 +930,7 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -899,7 +950,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -919,7 +970,7 @@
         <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -939,7 +990,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -959,7 +1010,7 @@
         <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -979,7 +1030,7 @@
         <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
